--- a/ADTT_RJ_Feed_Back.xlsx
+++ b/ADTT_RJ_Feed_Back.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3330" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>sno</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">introduce induction loop if Video Analytics won't able to get 100% accuracy </t>
+  </si>
+  <si>
+    <t>dfd</t>
   </si>
 </sst>
 </file>
@@ -249,6 +252,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,7 +262,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -547,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,13 +569,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -606,93 +609,93 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -700,10 +703,10 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -711,10 +714,10 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -722,10 +725,10 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -733,23 +736,23 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -757,10 +760,10 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -768,89 +771,89 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -862,8 +865,8 @@
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="3" t="s">
         <v>21</v>
       </c>
@@ -873,8 +876,8 @@
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="4" t="s">
         <v>36</v>
       </c>
@@ -884,8 +887,8 @@
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="2" t="s">
         <v>22</v>
       </c>
@@ -901,6 +904,11 @@
         <v>37</v>
       </c>
       <c r="E29" s="2"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/ADTT_RJ_Feed_Back.xlsx
+++ b/ADTT_RJ_Feed_Back.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4440" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>sno</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>dfd</t>
+  </si>
+  <si>
+    <t>Mayur Lashkari</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,9 +908,12 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
